--- a/ARCHERY SHEETS/Archery24.xlsx
+++ b/ARCHERY SHEETS/Archery24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Desktop\corey-richardson\ARCHERY SHEETS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2144ECC4-A3D3-45A6-AA0F-F8A8D3D9FA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6837C98-4219-4436-A900-FB86287A0025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{B4E75A46-3142-4F81-B4EF-75C42D0D0353}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{B4E75A46-3142-4F81-B4EF-75C42D0D0353}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="115">
   <si>
     <t>Swansea SWWU</t>
   </si>
@@ -378,6 +378,9 @@
   </si>
   <si>
     <t>BUCS OUTDOORS CONFIRMED ENTRY LIST RELEASED (I QUALIFIED!!!)</t>
+  </si>
+  <si>
+    <t>Trialling using Abyss X Flex for a scoring round, will stick to using GOAT at BUCS.</t>
   </si>
 </sst>
 </file>
@@ -608,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -697,6 +700,63 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -705,72 +765,6 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -780,6 +774,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -794,6 +795,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -801,6 +816,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -808,6 +844,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
@@ -822,6 +872,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
@@ -829,6 +886,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -836,6 +914,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -864,6 +956,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
@@ -871,6 +970,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -878,6 +984,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -885,6 +998,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
@@ -906,6 +1026,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
@@ -913,6 +1040,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -920,6 +1068,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -934,6 +1089,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -955,7 +1124,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -969,6 +1138,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
@@ -976,7 +1152,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -984,188 +1160,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1529,28 +1523,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF9BC55-E030-4D83-A3CE-E85DC3922C40}">
   <dimension ref="A1:S91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="P66" sqref="P66"/>
+      <selection pane="bottomLeft" activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="6" width="13.7109375" style="3" customWidth="1"/>
+    <col min="1" max="6" width="13.7265625" style="3" customWidth="1"/>
     <col min="7" max="7" width="28" style="3" customWidth="1"/>
-    <col min="8" max="8" width="29.7109375" style="3" customWidth="1"/>
-    <col min="9" max="12" width="11.42578125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="11.42578125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="102.85546875" style="3" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.140625" style="3" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="3"/>
+    <col min="8" max="8" width="29.7265625" style="3" customWidth="1"/>
+    <col min="9" max="12" width="11.40625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="12.40625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="11.40625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="102.86328125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="11.40625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.1328125" style="3" customWidth="1"/>
+    <col min="22" max="16384" width="9.1328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>30</v>
@@ -1573,12 +1567,12 @@
       <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
       <c r="M1" s="1" t="s">
         <v>57</v>
       </c>
@@ -1601,11 +1595,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="47">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A2" s="23">
         <v>45389</v>
       </c>
-      <c r="B2" s="47" t="str">
+      <c r="B2" s="23" t="str">
         <f>TEXT(A2, "dddd")</f>
         <v>Sunday</v>
       </c>
@@ -1636,7 +1630,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A3" s="20">
         <v>45391</v>
       </c>
@@ -1669,7 +1663,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A4" s="2">
         <v>45394</v>
       </c>
@@ -1717,7 +1711,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A5" s="2">
         <v>45396</v>
       </c>
@@ -1759,7 +1753,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A6" s="2">
         <v>45398</v>
       </c>
@@ -1786,7 +1780,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A7" s="2">
         <v>45401</v>
       </c>
@@ -1834,7 +1828,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A8" s="22">
         <v>45403</v>
       </c>
@@ -1867,7 +1861,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A9" s="2">
         <v>45405</v>
       </c>
@@ -1909,7 +1903,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A10" s="23">
         <v>45408</v>
       </c>
@@ -1933,7 +1927,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A11" s="22">
         <v>45410</v>
       </c>
@@ -1966,7 +1960,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A12" s="22">
         <v>45412</v>
       </c>
@@ -2005,7 +1999,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A13" s="23">
         <v>45415</v>
       </c>
@@ -2026,7 +2020,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A14" s="4">
         <v>45416</v>
       </c>
@@ -2068,7 +2062,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A15" s="4">
         <v>45417</v>
       </c>
@@ -2107,7 +2101,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A16" s="2">
         <v>45419</v>
       </c>
@@ -2142,11 +2136,11 @@
       <c r="O16" s="3">
         <v>360</v>
       </c>
-      <c r="Q16" s="33" t="s">
+      <c r="Q16" s="44" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A17" s="2">
         <v>45422</v>
       </c>
@@ -2166,9 +2160,9 @@
       <c r="F17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Q17" s="33"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q17" s="44"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A18" s="2">
         <v>45424</v>
       </c>
@@ -2182,9 +2176,9 @@
       <c r="D18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q18" s="33"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q18" s="44"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A19" s="2">
         <v>45426</v>
       </c>
@@ -2204,9 +2198,9 @@
       <c r="F19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Q19" s="33"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q19" s="44"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A20" s="2">
         <v>45429</v>
       </c>
@@ -2214,18 +2208,18 @@
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C20" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="36" t="s">
+      <c r="C20" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="43" t="s">
         <v>50</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Q20" s="33"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q20" s="44"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A21" s="4">
         <v>45430</v>
       </c>
@@ -2233,9 +2227,9 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="36"/>
-      <c r="G21" s="45" t="s">
+      <c r="C21" s="44"/>
+      <c r="D21" s="43"/>
+      <c r="G21" s="42" t="s">
         <v>53</v>
       </c>
       <c r="H21" s="24" t="s">
@@ -2257,30 +2251,30 @@
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
-      <c r="Q21" s="33" t="s">
+      <c r="Q21" s="44" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="43">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A22" s="37">
         <v>45431</v>
       </c>
-      <c r="B22" s="42" t="str">
+      <c r="B22" s="36" t="str">
         <f>TEXT(A22, "dddd")</f>
         <v>Sunday</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="36"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="34" t="s">
+      <c r="G22" s="42"/>
+      <c r="H22" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="I22" s="34" t="s">
+      <c r="I22" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="34" t="s">
+      <c r="J22" s="41" t="s">
         <v>16</v>
       </c>
       <c r="K22" s="35"/>
@@ -2296,19 +2290,19 @@
       <c r="P22" s="3">
         <v>37</v>
       </c>
-      <c r="Q22" s="33"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="36"/>
+      <c r="Q22" s="44"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A23" s="37"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="43"/>
       <c r="E23" s="35"/>
       <c r="F23" s="35"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
       <c r="K23" s="35"/>
       <c r="M23" s="5">
         <v>72</v>
@@ -2322,11 +2316,11 @@
       <c r="P23" s="3">
         <v>37</v>
       </c>
-      <c r="Q23" s="33"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="42"/>
+      <c r="Q23" s="44"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A24" s="37"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="3" t="s">
         <v>20</v>
       </c>
@@ -2336,27 +2330,27 @@
       <c r="G24" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="H24" s="51" t="s">
+      <c r="H24" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="I24" s="51" t="s">
+      <c r="I24" s="32" t="s">
         <v>16</v>
       </c>
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
-      <c r="M24" s="51">
+      <c r="M24" s="32">
         <v>72</v>
       </c>
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="42">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A25" s="36">
         <v>45433</v>
       </c>
-      <c r="B25" s="42" t="str">
+      <c r="B25" s="36" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
@@ -2376,28 +2370,28 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="32" t="s">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A27" s="2">
         <v>45436</v>
       </c>
@@ -2442,7 +2436,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A28" s="4">
         <v>45438</v>
       </c>
@@ -2487,7 +2481,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A29" s="2">
         <v>45440</v>
       </c>
@@ -2517,11 +2511,11 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="42">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A30" s="36">
         <v>45443</v>
       </c>
-      <c r="B30" s="42" t="str">
+      <c r="B30" s="36" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
@@ -2547,28 +2541,28 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="30" t="s">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="50"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A32" s="2">
         <v>45445</v>
       </c>
@@ -2600,8 +2594,20 @@
       <c r="M32" s="3">
         <v>90</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N32" s="3">
+        <v>743</v>
+      </c>
+      <c r="O32" s="3">
+        <v>900</v>
+      </c>
+      <c r="P32" s="3">
+        <v>43</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A33" s="2">
         <v>45447</v>
       </c>
@@ -2631,18 +2637,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="47">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A34" s="23">
         <v>45450</v>
       </c>
-      <c r="B34" s="47" t="str">
+      <c r="B34" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C34" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="48" t="s">
+      <c r="C34" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="24" t="s">
         <v>24</v>
       </c>
       <c r="E34" s="29" t="s">
@@ -2655,7 +2661,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A35" s="4">
         <v>45451</v>
       </c>
@@ -2663,13 +2669,13 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G35" s="46" t="s">
+      <c r="G35" s="42" t="s">
         <v>54</v>
       </c>
       <c r="H35" s="5" t="s">
@@ -2683,7 +2689,7 @@
       </c>
       <c r="Q35" s="35"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A36" s="4">
         <v>45452</v>
       </c>
@@ -2691,9 +2697,9 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="36"/>
-      <c r="G36" s="46"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="43"/>
+      <c r="G36" s="42"/>
       <c r="H36" s="5" t="s">
         <v>7</v>
       </c>
@@ -2711,7 +2717,7 @@
       </c>
       <c r="Q36" s="35"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A37" s="2">
         <v>45452</v>
       </c>
@@ -2727,7 +2733,7 @@
       </c>
       <c r="G37" s="26"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A38" s="6">
         <v>45454</v>
       </c>
@@ -2735,16 +2741,16 @@
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="38"/>
+      <c r="D38" s="40"/>
       <c r="G38" s="26"/>
       <c r="Q38" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A39" s="6">
         <v>45457</v>
       </c>
@@ -2752,14 +2758,14 @@
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
       <c r="G39" s="26"/>
       <c r="Q39" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A40" s="23">
         <v>45458</v>
       </c>
@@ -2767,25 +2773,25 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C40" s="40" t="s">
+      <c r="C40" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="39"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A41" s="6">
         <v>45459</v>
       </c>
@@ -2793,16 +2799,16 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C41" s="38" t="s">
+      <c r="C41" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="D41" s="38"/>
+      <c r="D41" s="40"/>
       <c r="G41" s="26"/>
       <c r="Q41" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A42" s="6">
         <v>45461</v>
       </c>
@@ -2810,14 +2816,14 @@
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
       <c r="G42" s="26"/>
       <c r="Q42" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A43" s="2">
         <v>45464</v>
       </c>
@@ -2853,8 +2859,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="49">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A44" s="30">
         <v>45465</v>
       </c>
       <c r="B44" s="23" t="str">
@@ -2864,23 +2870,23 @@
       <c r="C44" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="50" t="s">
+      <c r="D44" s="31" t="s">
         <v>55</v>
       </c>
       <c r="G44" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="H44" s="51" t="s">
+      <c r="H44" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="I44" s="51" t="s">
+      <c r="I44" s="32" t="s">
         <v>16</v>
       </c>
       <c r="M44" s="5">
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A45" s="2">
         <v>45466</v>
       </c>
@@ -2910,7 +2916,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A46" s="2">
         <v>45468</v>
       </c>
@@ -2931,7 +2937,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A47" s="2">
         <v>45471</v>
       </c>
@@ -2952,7 +2958,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A48" s="2">
         <v>45473</v>
       </c>
@@ -2979,7 +2985,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A49" s="2">
         <v>45475</v>
       </c>
@@ -3000,7 +3006,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A50" s="2">
         <v>45478</v>
       </c>
@@ -3021,7 +3027,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A51" s="2">
         <v>45480</v>
       </c>
@@ -3054,7 +3060,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A52" s="2">
         <v>45482</v>
       </c>
@@ -3090,7 +3096,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A53" s="2">
         <v>45485</v>
       </c>
@@ -3111,7 +3117,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A54" s="2">
         <v>45487</v>
       </c>
@@ -3135,7 +3141,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A55" s="2">
         <v>45489</v>
       </c>
@@ -3171,7 +3177,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A56" s="6">
         <v>45492</v>
       </c>
@@ -3179,10 +3185,10 @@
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C56" s="39" t="s">
+      <c r="C56" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="D56" s="39"/>
+      <c r="D56" s="45"/>
       <c r="E56" s="8" t="s">
         <v>27</v>
       </c>
@@ -3193,7 +3199,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A57" s="2">
         <v>45493</v>
       </c>
@@ -3201,25 +3207,25 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C57" s="40" t="s">
+      <c r="C57" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="40"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="40"/>
-      <c r="K57" s="40"/>
-      <c r="L57" s="40"/>
-      <c r="M57" s="40"/>
-      <c r="N57" s="40"/>
-      <c r="O57" s="40"/>
-      <c r="P57" s="40"/>
-      <c r="Q57" s="40"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="39"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="39"/>
+      <c r="O57" s="39"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="39"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A58" s="6">
         <v>45494</v>
       </c>
@@ -3227,15 +3233,15 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C58" s="39" t="s">
+      <c r="C58" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="D58" s="39"/>
+      <c r="D58" s="45"/>
       <c r="Q58" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A59" s="2">
         <v>45496</v>
       </c>
@@ -3256,7 +3262,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A60" s="2">
         <v>45499</v>
       </c>
@@ -3292,7 +3298,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A61" s="2">
         <v>45501</v>
       </c>
@@ -3313,7 +3319,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A62" s="2">
         <v>45503</v>
       </c>
@@ -3334,7 +3340,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A63" s="2">
         <v>45506</v>
       </c>
@@ -3355,7 +3361,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A64" s="4">
         <v>45507</v>
       </c>
@@ -3363,13 +3369,13 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C64" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D64" s="36" t="s">
+      <c r="C64" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="G64" s="41" t="s">
+      <c r="G64" s="46" t="s">
         <v>78</v>
       </c>
       <c r="H64" s="3" t="s">
@@ -3391,7 +3397,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A65" s="4">
         <v>45508</v>
       </c>
@@ -3399,9 +3405,9 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C65" s="33"/>
-      <c r="D65" s="36"/>
-      <c r="G65" s="41"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="43"/>
+      <c r="G65" s="46"/>
       <c r="H65" s="3" t="s">
         <v>79</v>
       </c>
@@ -3421,7 +3427,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A66" s="2">
         <v>45508</v>
       </c>
@@ -3442,7 +3448,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A67" s="2">
         <v>45510</v>
       </c>
@@ -3478,7 +3484,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A68" s="2">
         <v>45513</v>
       </c>
@@ -3499,7 +3505,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A69" s="2">
         <v>45515</v>
       </c>
@@ -3532,7 +3538,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A70" s="2">
         <v>45517</v>
       </c>
@@ -3553,7 +3559,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A71" s="2">
         <v>45520</v>
       </c>
@@ -3574,7 +3580,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A72" s="4">
         <v>45521</v>
       </c>
@@ -3582,16 +3588,16 @@
         <f t="shared" ref="B72:B91" si="2">TEXT(A72, "dddd")</f>
         <v>Saturday</v>
       </c>
-      <c r="C72" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D72" s="36" t="s">
+      <c r="C72" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="G72" s="52" t="s">
+      <c r="G72" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="H72" s="54" t="s">
+      <c r="H72" s="34" t="s">
         <v>81</v>
       </c>
       <c r="I72" s="5" t="s">
@@ -3601,7 +3607,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A73" s="4">
         <v>45522</v>
       </c>
@@ -3609,10 +3615,10 @@
         <f t="shared" si="2"/>
         <v>Sunday</v>
       </c>
-      <c r="C73" s="33"/>
-      <c r="D73" s="36"/>
-      <c r="G73" s="52"/>
-      <c r="H73" s="53" t="s">
+      <c r="C73" s="44"/>
+      <c r="D73" s="43"/>
+      <c r="G73" s="47"/>
+      <c r="H73" s="33" t="s">
         <v>79</v>
       </c>
       <c r="I73" s="3" t="s">
@@ -3631,7 +3637,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A74" s="2">
         <v>45522</v>
       </c>
@@ -3658,7 +3664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A75" s="2">
         <v>45524</v>
       </c>
@@ -3679,7 +3685,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A76" s="2">
         <v>45527</v>
       </c>
@@ -3709,7 +3715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A77" s="4">
         <v>45528</v>
       </c>
@@ -3720,17 +3726,17 @@
       <c r="C77" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D77" s="37" t="s">
+      <c r="D77" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="G77" s="41" t="s">
+      <c r="G77" s="46" t="s">
         <v>85</v>
       </c>
       <c r="H77" s="24" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A78" s="4">
         <v>45529</v>
       </c>
@@ -3741,13 +3747,13 @@
       <c r="C78" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="37"/>
-      <c r="G78" s="41"/>
+      <c r="D78" s="48"/>
+      <c r="G78" s="46"/>
       <c r="H78" s="24" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A79" s="2">
         <v>45529</v>
       </c>
@@ -3777,7 +3783,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A80" s="2">
         <v>45531</v>
       </c>
@@ -3798,7 +3804,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A81" s="2">
         <v>45534</v>
       </c>
@@ -3819,7 +3825,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A82" s="4">
         <v>45536</v>
       </c>
@@ -3853,7 +3859,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A83" s="2">
         <v>45536</v>
       </c>
@@ -3868,7 +3874,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A84" s="2">
         <v>45538</v>
       </c>
@@ -3904,7 +3910,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A85" s="2">
         <v>45541</v>
       </c>
@@ -3925,7 +3931,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A86" s="2">
         <v>45543</v>
       </c>
@@ -3949,34 +3955,34 @@
         <v>72</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A87" s="1"/>
       <c r="B87" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Saturday</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A88" s="1"/>
       <c r="B88" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Saturday</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A89" s="1"/>
       <c r="B89" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Saturday</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.75">
       <c r="B90" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Saturday</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.75">
       <c r="B91" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Saturday</v>
@@ -3984,11 +3990,23 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="Q16:Q20"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="Q21:Q23"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:Q57"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="C40:Q40"/>
     <mergeCell ref="C38:D39"/>
@@ -4003,27 +4021,15 @@
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:Q57"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="G77:G78"/>
     <mergeCell ref="C31:Q31"/>
     <mergeCell ref="C26:Q26"/>
-    <mergeCell ref="Q16:Q20"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="Q21:Q23"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A22:A24"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:C20 C24:C25 C43:C55 C27:C35">
+  <conditionalFormatting sqref="C2:C20 C24:C25 C27:C35 C43:C55">
     <cfRule type="containsText" dxfId="59" priority="134" operator="containsText" text="University">
       <formula>NOT(ISERROR(SEARCH("University",C2)))</formula>
     </cfRule>
@@ -4058,6 +4064,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C63">
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="min"/>
@@ -4068,7 +4082,17 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="97">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59:C64">
+    <cfRule type="containsText" dxfId="55" priority="95" operator="containsText" text="Yelverton">
+      <formula>NOT(ISERROR(SEARCH("Yelverton",C59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="94" operator="containsText" text="University">
+      <formula>NOT(ISERROR(SEARCH("University",C59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4076,16 +4100,6 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59:C64">
-    <cfRule type="containsText" dxfId="55" priority="94" operator="containsText" text="University">
-      <formula>NOT(ISERROR(SEARCH("University",C59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="95" operator="containsText" text="Yelverton">
-      <formula>NOT(ISERROR(SEARCH("Yelverton",C59)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
     <cfRule type="colorScale" priority="103">
       <colorScale>
         <cfvo type="min"/>
@@ -4094,14 +4108,6 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="104">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -4134,6 +4140,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -4142,14 +4156,6 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="77">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -4214,6 +4220,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -4222,14 +4236,6 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -4254,6 +4260,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C74">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -4264,21 +4278,13 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C74:C86">
-    <cfRule type="containsText" dxfId="51" priority="26" operator="containsText" text="University">
+    <cfRule type="containsText" dxfId="51" priority="27" operator="containsText" text="Yelverton">
+      <formula>NOT(ISERROR(SEARCH("Yelverton",C74)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="26" operator="containsText" text="University">
       <formula>NOT(ISERROR(SEARCH("University",C74)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="27" operator="containsText" text="Yelverton">
-      <formula>NOT(ISERROR(SEARCH("Yelverton",C74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75:C86">
@@ -4309,7 +4315,7 @@
       <formula>NOT(ISERROR(SEARCH("Wide",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D25 D27:D37 D43:D47 D48:F48">
+  <conditionalFormatting sqref="D27:D37 D2:D25 D43:D47 D48:F48">
     <cfRule type="containsText" dxfId="47" priority="130" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",D2)))</formula>
     </cfRule>
@@ -4343,14 +4349,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:D55">
-    <cfRule type="containsText" dxfId="44" priority="114" operator="containsText" text="YMCA">
+    <cfRule type="containsText" dxfId="44" priority="115" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",D49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="116" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",D49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="114" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",D49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="115" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",D49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="116" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",D49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:D64">
@@ -4370,22 +4376,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66:D72">
-    <cfRule type="containsText" dxfId="37" priority="3" operator="containsText" text="YMCA">
+    <cfRule type="containsText" dxfId="37" priority="4" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",D66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="3" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",D66)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="4" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",D66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74:D77 D79:D86">
-    <cfRule type="containsText" dxfId="35" priority="23" operator="containsText" text="YMCA">
+    <cfRule type="containsText" dxfId="35" priority="25" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",D74)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="23" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",D74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="24" operator="containsText" text="Lip">
+    <cfRule type="containsText" dxfId="33" priority="24" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",D74)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="25" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",D74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72:E72">
@@ -4394,47 +4400,47 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8 E18">
-    <cfRule type="containsText" dxfId="31" priority="126" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E8)))</formula>
+    <cfRule type="containsText" dxfId="31" priority="128" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",E8)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="30" priority="127" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",E8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="128" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E8)))</formula>
+    <cfRule type="containsText" dxfId="29" priority="126" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",E8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsText" dxfId="28" priority="120" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E11)))</formula>
+    <cfRule type="containsText" dxfId="28" priority="122" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",E11)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="27" priority="121" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",E11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="122" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E11)))</formula>
+    <cfRule type="containsText" dxfId="26" priority="120" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",E11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="containsText" dxfId="25" priority="111" operator="containsText" text="YMCA">
+    <cfRule type="containsText" dxfId="25" priority="113" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",E51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="111" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",E51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="112" operator="containsText" text="Lip">
+    <cfRule type="containsText" dxfId="23" priority="112" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",E51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="113" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="containsText" dxfId="22" priority="108" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E54)))</formula>
+    <cfRule type="containsText" dxfId="22" priority="110" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",E54)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="21" priority="109" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",E54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="110" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E54)))</formula>
+    <cfRule type="containsText" dxfId="20" priority="108" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",E54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
@@ -4449,14 +4455,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="containsText" dxfId="16" priority="88" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E61)))</formula>
+    <cfRule type="containsText" dxfId="16" priority="90" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",E61)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="15" priority="89" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",E61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="90" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E61)))</formula>
+    <cfRule type="containsText" dxfId="14" priority="88" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",E61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
@@ -4474,19 +4480,19 @@
     <cfRule type="containsText" dxfId="10" priority="40" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",E69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="41" operator="containsText" text="Lip">
+    <cfRule type="containsText" dxfId="9" priority="42" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",E69)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="41" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",E69)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="42" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="containsText" dxfId="7" priority="37" operator="containsText" text="YMCA">
+    <cfRule type="containsText" dxfId="7" priority="38" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",E72)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="37" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",E72)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="38" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
@@ -4501,14 +4507,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="containsText" dxfId="2" priority="17" operator="containsText" text="YMCA">
+    <cfRule type="containsText" dxfId="2" priority="18" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",E82)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="19" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",E82)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="17" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",E82)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="18" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E82)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="19" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:J43">

--- a/ARCHERY SHEETS/Archery24.xlsx
+++ b/ARCHERY SHEETS/Archery24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Desktop\corey-richardson\ARCHERY SHEETS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6837C98-4219-4436-A900-FB86287A0025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF9A4C4-BD13-4AF0-91CC-8F568F76D624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{B4E75A46-3142-4F81-B4EF-75C42D0D0353}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{B4E75A46-3142-4F81-B4EF-75C42D0D0353}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="119">
   <si>
     <t>Swansea SWWU</t>
   </si>
@@ -381,13 +381,25 @@
   </si>
   <si>
     <t>Trialling using Abyss X Flex for a scoring round, will stick to using GOAT at BUCS.</t>
+  </si>
+  <si>
+    <t>Half 720, not brilliant weather</t>
+  </si>
+  <si>
+    <t>Widewell School Fete</t>
+  </si>
+  <si>
+    <t>Windy, not good for TP; only one point off PB!</t>
+  </si>
+  <si>
+    <t>Beat PB by 4 points, could've easily got even more but a shaky 50m ruined that, 60m went very well</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,6 +494,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -611,7 +631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -685,9 +705,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -715,12 +732,15 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -745,32 +765,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="54">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -781,6 +811,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -802,6 +839,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
@@ -816,6 +860,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -830,6 +888,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
@@ -844,6 +923,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -858,6 +951,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
@@ -865,6 +965,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -893,6 +1007,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -900,6 +1028,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
@@ -907,6 +1042,55 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -914,6 +1098,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -921,6 +1119,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
@@ -942,7 +1147,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -956,13 +1161,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
@@ -971,223 +1169,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1523,28 +1504,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF9BC55-E030-4D83-A3CE-E85DC3922C40}">
   <dimension ref="A1:S91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="Q32" sqref="Q32"/>
+      <selection pane="bottomLeft" activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="6" width="13.7109375" style="3" customWidth="1"/>
     <col min="7" max="7" width="28" style="3" customWidth="1"/>
-    <col min="8" max="8" width="29.7265625" style="3" customWidth="1"/>
-    <col min="9" max="12" width="11.40625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="12.40625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="11.40625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="102.86328125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="11.40625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.1328125" style="3" customWidth="1"/>
-    <col min="22" max="16384" width="9.1328125" style="3"/>
+    <col min="8" max="8" width="29.7109375" style="3" customWidth="1"/>
+    <col min="9" max="12" width="11.42578125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="102.85546875" style="3" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.140625" style="3" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>30</v>
@@ -1595,7 +1576,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="23">
         <v>45389</v>
       </c>
@@ -1630,7 +1611,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>45391</v>
       </c>
@@ -1663,7 +1644,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45394</v>
       </c>
@@ -1711,7 +1692,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45396</v>
       </c>
@@ -1753,7 +1734,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45398</v>
       </c>
@@ -1780,7 +1761,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45401</v>
       </c>
@@ -1828,7 +1809,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>45403</v>
       </c>
@@ -1861,7 +1842,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45405</v>
       </c>
@@ -1899,11 +1880,14 @@
       <c r="O9" s="3">
         <v>600</v>
       </c>
+      <c r="P9" s="34">
+        <v>42</v>
+      </c>
       <c r="Q9" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>45408</v>
       </c>
@@ -1917,17 +1901,17 @@
       <c r="D10" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="28" t="s">
         <v>28</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>45410</v>
       </c>
@@ -1960,7 +1944,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>45412</v>
       </c>
@@ -1968,18 +1952,14 @@
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="25" t="s">
+      <c r="C12" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="25" t="s">
-        <v>28</v>
-      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="H12" s="3" t="s">
         <v>68</v>
       </c>
@@ -1999,7 +1979,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>45415</v>
       </c>
@@ -2013,14 +1993,14 @@
       <c r="D13" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45416</v>
       </c>
@@ -2034,7 +2014,7 @@
       <c r="D14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="27" t="s">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="s">
@@ -2062,7 +2042,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45417</v>
       </c>
@@ -2076,7 +2056,7 @@
       <c r="D15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="27" t="s">
         <v>1</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -2101,7 +2081,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45419</v>
       </c>
@@ -2136,11 +2116,14 @@
       <c r="O16" s="3">
         <v>360</v>
       </c>
+      <c r="P16" s="34">
+        <v>38</v>
+      </c>
       <c r="Q16" s="44" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45422</v>
       </c>
@@ -2162,7 +2145,7 @@
       </c>
       <c r="Q17" s="44"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45424</v>
       </c>
@@ -2178,7 +2161,7 @@
       </c>
       <c r="Q18" s="44"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45426</v>
       </c>
@@ -2200,7 +2183,7 @@
       </c>
       <c r="Q19" s="44"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45429</v>
       </c>
@@ -2219,7 +2202,7 @@
       </c>
       <c r="Q20" s="44"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>45430</v>
       </c>
@@ -2255,18 +2238,18 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="37">
         <v>45431</v>
       </c>
-      <c r="B22" s="36" t="str">
+      <c r="B22" s="35" t="str">
         <f>TEXT(A22, "dddd")</f>
         <v>Sunday</v>
       </c>
       <c r="C22" s="44"/>
       <c r="D22" s="43"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
       <c r="G22" s="42"/>
       <c r="H22" s="41" t="s">
         <v>83</v>
@@ -2277,7 +2260,7 @@
       <c r="J22" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="35"/>
+      <c r="K22" s="36"/>
       <c r="M22" s="5">
         <v>72</v>
       </c>
@@ -2292,18 +2275,18 @@
       </c>
       <c r="Q22" s="44"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
-      <c r="B23" s="36"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="44"/>
       <c r="D23" s="43"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
       <c r="G23" s="42"/>
       <c r="H23" s="41"/>
       <c r="I23" s="41"/>
       <c r="J23" s="41"/>
-      <c r="K23" s="35"/>
+      <c r="K23" s="36"/>
       <c r="M23" s="5">
         <v>72</v>
       </c>
@@ -2318,9 +2301,9 @@
       </c>
       <c r="Q23" s="44"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
-      <c r="B24" s="36"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="3" t="s">
         <v>20</v>
       </c>
@@ -2330,27 +2313,27 @@
       <c r="G24" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="H24" s="32" t="s">
+      <c r="H24" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="I24" s="32" t="s">
+      <c r="I24" s="31" t="s">
         <v>16</v>
       </c>
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
-      <c r="M24" s="32">
+      <c r="M24" s="31">
         <v>72</v>
       </c>
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A25" s="36">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="35">
         <v>45433</v>
       </c>
-      <c r="B25" s="36" t="str">
+      <c r="B25" s="35" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
@@ -2370,28 +2353,28 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="51" t="s">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45436</v>
       </c>
@@ -2436,7 +2419,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>45438</v>
       </c>
@@ -2450,7 +2433,7 @@
       <c r="D28" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="28" t="s">
+      <c r="G28" s="27" t="s">
         <v>6</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -2481,7 +2464,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>45440</v>
       </c>
@@ -2511,11 +2494,11 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A30" s="36">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="35">
         <v>45443</v>
       </c>
-      <c r="B30" s="36" t="str">
+      <c r="B30" s="35" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
@@ -2541,28 +2524,28 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="49" t="s">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>45445</v>
       </c>
@@ -2607,7 +2590,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>45447</v>
       </c>
@@ -2634,10 +2617,22 @@
         <v>16</v>
       </c>
       <c r="M33" s="3">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.75">
+        <v>36</v>
+      </c>
+      <c r="N33" s="3">
+        <v>262</v>
+      </c>
+      <c r="O33" s="3">
+        <v>360</v>
+      </c>
+      <c r="P33" s="34">
+        <v>41</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>45450</v>
       </c>
@@ -2651,17 +2646,17 @@
       <c r="D34" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="29" t="s">
+      <c r="E34" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="29" t="s">
+      <c r="F34" s="28" t="s">
         <v>28</v>
       </c>
       <c r="Q34" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>45451</v>
       </c>
@@ -2687,9 +2682,20 @@
       <c r="M35" s="5">
         <v>72</v>
       </c>
-      <c r="Q35" s="35"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="N35" s="3">
+        <v>554</v>
+      </c>
+      <c r="O35" s="3">
+        <v>720</v>
+      </c>
+      <c r="P35" s="3">
+        <v>37</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>45452</v>
       </c>
@@ -2715,122 +2721,138 @@
       <c r="M36" s="5">
         <v>90</v>
       </c>
-      <c r="Q36" s="35"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A37" s="2">
-        <v>45452</v>
-      </c>
-      <c r="B37" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Sunday</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" s="26"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="N36" s="3">
+        <v>789</v>
+      </c>
+      <c r="O36" s="3">
+        <v>900</v>
+      </c>
+      <c r="P36" s="3">
+        <v>35</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>45454</v>
+      </c>
+      <c r="B37" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="40"/>
+      <c r="G37" s="25"/>
+      <c r="Q37" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>45454</v>
+        <v>45457</v>
       </c>
       <c r="B38" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Tuesday</v>
-      </c>
-      <c r="C38" s="40" t="s">
-        <v>77</v>
-      </c>
+        <v>Friday</v>
+      </c>
+      <c r="C38" s="40"/>
       <c r="D38" s="40"/>
-      <c r="G38" s="26"/>
+      <c r="G38" s="25"/>
       <c r="Q38" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A39" s="6">
-        <v>45457</v>
-      </c>
-      <c r="B39" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Friday</v>
-      </c>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="G39" s="26"/>
-      <c r="Q39" s="3" t="s">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="23">
+        <v>45458</v>
+      </c>
+      <c r="B39" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>Saturday</v>
+      </c>
+      <c r="C39" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="39"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="39"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>45459</v>
+      </c>
+      <c r="B40" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="40"/>
+      <c r="G40" s="25"/>
+      <c r="Q40" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A40" s="23">
-        <v>45458</v>
-      </c>
-      <c r="B40" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>Saturday</v>
-      </c>
-      <c r="C40" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="39"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <v>45459</v>
+        <v>45461</v>
       </c>
       <c r="B41" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Sunday</v>
-      </c>
-      <c r="C41" s="40" t="s">
-        <v>77</v>
-      </c>
+        <v>Tuesday</v>
+      </c>
+      <c r="C41" s="40"/>
       <c r="D41" s="40"/>
-      <c r="G41" s="26"/>
+      <c r="G41" s="25"/>
       <c r="Q41" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A42" s="6">
-        <v>45461</v>
-      </c>
-      <c r="B42" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Tuesday</v>
-      </c>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="G42" s="26"/>
-      <c r="Q42" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A43" s="2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="35">
         <v>45464</v>
       </c>
-      <c r="B43" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="B42" s="35" t="str">
+        <f>TEXT(A42, "dddd")</f>
         <v>Friday</v>
       </c>
+      <c r="C42" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="50"/>
+      <c r="Q42" s="50"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
       <c r="C43" s="3" t="s">
         <v>22</v>
       </c>
@@ -2843,24 +2865,9 @@
       <c r="F43" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M43" s="3">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A44" s="30">
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="29">
         <v>45465</v>
       </c>
       <c r="B44" s="23" t="str">
@@ -2870,23 +2877,23 @@
       <c r="C44" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="30" t="s">
         <v>55</v>
       </c>
       <c r="G44" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="H44" s="32" t="s">
+      <c r="H44" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I44" s="32" t="s">
+      <c r="I44" s="31" t="s">
         <v>16</v>
       </c>
       <c r="M44" s="5">
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>45466</v>
       </c>
@@ -2900,6 +2907,9 @@
       <c r="D45" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="G45" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="H45" s="3" t="s">
         <v>96</v>
       </c>
@@ -2916,7 +2926,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45468</v>
       </c>
@@ -2937,7 +2947,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45471</v>
       </c>
@@ -2958,7 +2968,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45473</v>
       </c>
@@ -2985,7 +2995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>45475</v>
       </c>
@@ -3006,7 +3016,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>45478</v>
       </c>
@@ -3027,7 +3037,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>45480</v>
       </c>
@@ -3060,7 +3070,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>45482</v>
       </c>
@@ -3096,7 +3106,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>45485</v>
       </c>
@@ -3117,7 +3127,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>45487</v>
       </c>
@@ -3141,7 +3151,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>45489</v>
       </c>
@@ -3177,7 +3187,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>45492</v>
       </c>
@@ -3185,10 +3195,10 @@
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C56" s="45" t="s">
+      <c r="C56" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="D56" s="45"/>
+      <c r="D56" s="48"/>
       <c r="E56" s="8" t="s">
         <v>27</v>
       </c>
@@ -3199,11 +3209,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A57" s="2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="23">
         <v>45493</v>
       </c>
-      <c r="B57" s="2" t="str">
+      <c r="B57" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
@@ -3225,7 +3235,7 @@
       <c r="P57" s="39"/>
       <c r="Q57" s="39"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>45494</v>
       </c>
@@ -3233,15 +3243,15 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C58" s="45" t="s">
+      <c r="C58" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="D58" s="45"/>
+      <c r="D58" s="48"/>
       <c r="Q58" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>45496</v>
       </c>
@@ -3262,7 +3272,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>45499</v>
       </c>
@@ -3298,7 +3308,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>45501</v>
       </c>
@@ -3319,7 +3329,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>45503</v>
       </c>
@@ -3340,7 +3350,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>45506</v>
       </c>
@@ -3361,7 +3371,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>45507</v>
       </c>
@@ -3375,7 +3385,7 @@
       <c r="D64" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="G64" s="46" t="s">
+      <c r="G64" s="49" t="s">
         <v>78</v>
       </c>
       <c r="H64" s="3" t="s">
@@ -3397,7 +3407,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>45508</v>
       </c>
@@ -3407,7 +3417,7 @@
       </c>
       <c r="C65" s="44"/>
       <c r="D65" s="43"/>
-      <c r="G65" s="46"/>
+      <c r="G65" s="49"/>
       <c r="H65" s="3" t="s">
         <v>79</v>
       </c>
@@ -3427,7 +3437,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>45508</v>
       </c>
@@ -3441,14 +3451,14 @@
       <c r="D66" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G66" s="26" t="s">
+      <c r="G66" s="25" t="s">
         <v>104</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>45510</v>
       </c>
@@ -3484,7 +3494,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>45513</v>
       </c>
@@ -3505,7 +3515,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>45515</v>
       </c>
@@ -3538,7 +3548,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>45517</v>
       </c>
@@ -3559,7 +3569,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>45520</v>
       </c>
@@ -3580,7 +3590,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>45521</v>
       </c>
@@ -3594,10 +3604,10 @@
       <c r="D72" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="G72" s="47" t="s">
+      <c r="G72" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="H72" s="34" t="s">
+      <c r="H72" s="33" t="s">
         <v>81</v>
       </c>
       <c r="I72" s="5" t="s">
@@ -3607,7 +3617,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>45522</v>
       </c>
@@ -3617,8 +3627,8 @@
       </c>
       <c r="C73" s="44"/>
       <c r="D73" s="43"/>
-      <c r="G73" s="47"/>
-      <c r="H73" s="33" t="s">
+      <c r="G73" s="51"/>
+      <c r="H73" s="32" t="s">
         <v>79</v>
       </c>
       <c r="I73" s="3" t="s">
@@ -3637,7 +3647,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>45522</v>
       </c>
@@ -3664,7 +3674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>45524</v>
       </c>
@@ -3685,7 +3695,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>45527</v>
       </c>
@@ -3715,7 +3725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>45528</v>
       </c>
@@ -3726,17 +3736,17 @@
       <c r="C77" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D77" s="48" t="s">
+      <c r="D77" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="G77" s="46" t="s">
+      <c r="G77" s="49" t="s">
         <v>85</v>
       </c>
       <c r="H77" s="24" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>45529</v>
       </c>
@@ -3747,13 +3757,13 @@
       <c r="C78" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="48"/>
-      <c r="G78" s="46"/>
+      <c r="D78" s="52"/>
+      <c r="G78" s="49"/>
       <c r="H78" s="24" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>45529</v>
       </c>
@@ -3783,7 +3793,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>45531</v>
       </c>
@@ -3804,7 +3814,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>45534</v>
       </c>
@@ -3825,7 +3835,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>45536</v>
       </c>
@@ -3839,7 +3849,7 @@
       <c r="D82" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G82" s="27" t="s">
+      <c r="G82" s="26" t="s">
         <v>87</v>
       </c>
       <c r="H82" s="5" t="s">
@@ -3859,7 +3869,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>45536</v>
       </c>
@@ -3874,7 +3884,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>45538</v>
       </c>
@@ -3910,7 +3920,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>45541</v>
       </c>
@@ -3931,8 +3941,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A86" s="2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
         <v>45543</v>
       </c>
       <c r="B86" s="1" t="str">
@@ -3942,10 +3952,10 @@
       <c r="C86" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G86" s="3" t="s">
+      <c r="D86" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G86" s="7" t="s">
         <v>105</v>
       </c>
       <c r="H86" s="3" t="s">
@@ -3955,61 +3965,65 @@
         <v>72</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Saturday</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Saturday</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Saturday</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Saturday</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Saturday</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="40">
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="G77:G78"/>
     <mergeCell ref="Q16:Q20"/>
     <mergeCell ref="I22:I23"/>
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="K22:K23"/>
     <mergeCell ref="Q21:Q23"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="C42:Q42"/>
     <mergeCell ref="C72:C73"/>
     <mergeCell ref="D72:D73"/>
     <mergeCell ref="G72:G73"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="C26:Q26"/>
+    <mergeCell ref="C40:D41"/>
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="C57:Q57"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A22:A24"/>
     <mergeCell ref="I1:L1"/>
-    <mergeCell ref="C40:Q40"/>
-    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="C39:Q39"/>
+    <mergeCell ref="C37:D38"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="F22:F23"/>
@@ -4021,30 +4035,30 @@
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C31:Q31"/>
-    <mergeCell ref="C26:Q26"/>
-    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="C31:Q31"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C20 C24:C25 C27:C35 C43:C55">
-    <cfRule type="containsText" dxfId="59" priority="134" operator="containsText" text="University">
+    <cfRule type="containsText" dxfId="53" priority="137" operator="containsText" text="Yelverton">
+      <formula>NOT(ISERROR(SEARCH("Yelverton",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="136" operator="containsText" text="University">
       <formula>NOT(ISERROR(SEARCH("University",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="135" operator="containsText" text="Yelverton">
-      <formula>NOT(ISERROR(SEARCH("Yelverton",C2)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsText" dxfId="57" priority="13" operator="containsText" text="University">
-      <formula>NOT(ISERROR(SEARCH("University",C37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="14" operator="containsText" text="Yelverton">
-      <formula>NOT(ISERROR(SEARCH("Yelverton",C37)))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="15">
+  <conditionalFormatting sqref="C43:C55 D35 D15 D28 C27:C35 C24:C25 C2:C20">
+    <cfRule type="colorScale" priority="139">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="138">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4054,7 +4068,9 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="16">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59:C63">
+    <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4062,17 +4078,7 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59:C63">
-    <cfRule type="colorScale" priority="97">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="96">
+    <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4084,15 +4090,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C64">
-    <cfRule type="containsText" dxfId="55" priority="95" operator="containsText" text="Yelverton">
+    <cfRule type="containsText" dxfId="51" priority="97" operator="containsText" text="Yelverton">
       <formula>NOT(ISERROR(SEARCH("Yelverton",C59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="94" operator="containsText" text="University">
+    <cfRule type="containsText" dxfId="50" priority="96" operator="containsText" text="University">
       <formula>NOT(ISERROR(SEARCH("University",C59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64">
-    <cfRule type="colorScale" priority="104">
+    <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4100,7 +4106,7 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="103">
+    <cfRule type="colorScale" priority="105">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4112,7 +4118,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4122,33 +4136,17 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66:C72">
-    <cfRule type="containsText" dxfId="53" priority="6" operator="containsText" text="University">
+    <cfRule type="containsText" dxfId="49" priority="8" operator="containsText" text="University">
       <formula>NOT(ISERROR(SEARCH("University",C66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="7" operator="containsText" text="Yelverton">
+    <cfRule type="containsText" dxfId="48" priority="9" operator="containsText" text="Yelverton">
       <formula>NOT(ISERROR(SEARCH("Yelverton",C66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="colorScale" priority="77">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="76">
+    <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4158,9 +4156,17 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68">
-    <cfRule type="colorScale" priority="69">
+    <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4170,7 +4176,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="70">
+    <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4180,7 +4186,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69">
-    <cfRule type="colorScale" priority="62">
+    <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4190,7 +4196,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="63">
+    <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4200,7 +4206,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70">
-    <cfRule type="colorScale" priority="55">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4210,7 +4216,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="56">
+    <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4220,15 +4226,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="48">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4238,9 +4236,25 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="colorScale" priority="83">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4250,25 +4264,9 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="84">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C74">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="35">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4278,17 +4276,25 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C74:C86">
-    <cfRule type="containsText" dxfId="51" priority="27" operator="containsText" text="Yelverton">
+    <cfRule type="containsText" dxfId="47" priority="28" operator="containsText" text="University">
+      <formula>NOT(ISERROR(SEARCH("University",C74)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="29" operator="containsText" text="Yelverton">
       <formula>NOT(ISERROR(SEARCH("Yelverton",C74)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="26" operator="containsText" text="University">
-      <formula>NOT(ISERROR(SEARCH("University",C74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75:C86">
-    <cfRule type="colorScale" priority="28">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4298,7 +4304,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="29">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4307,21 +4313,236 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D20 D24:D25 D27:D35 D43:D47 D48:F48">
-    <cfRule type="containsText" dxfId="49" priority="132" operator="containsText" text="Lip">
+  <conditionalFormatting sqref="D1:D11 D43:D1048576">
+    <cfRule type="containsText" dxfId="45" priority="1" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D11 D13:D20 D24:D25 D27:D35 D43:D47 D48:F48">
+    <cfRule type="containsText" dxfId="44" priority="135" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:D20 D24:D25 D27:D35 D48:F48 D2:D11 D43:D47">
+    <cfRule type="containsText" dxfId="43" priority="134" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="133" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",D2)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D37 D2:D25 D43:D47 D48:F48">
-    <cfRule type="containsText" dxfId="47" priority="130" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",D2)))</formula>
+  <conditionalFormatting sqref="D13:D41 D48:F48">
+    <cfRule type="containsText" dxfId="42" priority="132" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",D13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35 D15 D28 C27:C35 C24:C25 C2:C20 C43:C55">
-    <cfRule type="colorScale" priority="136">
+  <conditionalFormatting sqref="D49:D55">
+    <cfRule type="containsText" dxfId="41" priority="118" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",D49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="117" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59:D64">
+    <cfRule type="containsText" dxfId="39" priority="94" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",D59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="95" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",D59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66:D71">
+    <cfRule type="containsText" dxfId="37" priority="7" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",D66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66:D72">
+    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",D66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D74:D77 D79:D86">
+    <cfRule type="containsText" dxfId="35" priority="27" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",D74)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="26" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",D74)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D72:E72">
+    <cfRule type="containsText" dxfId="33" priority="41" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",D72)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8 E18">
+    <cfRule type="containsText" dxfId="32" priority="130" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",E8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="128" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",E8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="129" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",E8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="containsText" dxfId="29" priority="124" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",E11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="123" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",E11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="122" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",E11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="containsText" dxfId="26" priority="113" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",E51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="115" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",E51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="114" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",E51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="containsText" dxfId="23" priority="111" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",E54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="110" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",E54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="112" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",E54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="containsText" dxfId="20" priority="107" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",E58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="108" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",E58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="109" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",E58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="containsText" dxfId="17" priority="92" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",E61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="91" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",E61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="90" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",E61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="containsText" dxfId="14" priority="87" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",E64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="89" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",E64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="88" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",E64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="containsText" dxfId="11" priority="42" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",E69)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="43" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",E69)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="44" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",E69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="containsText" dxfId="8" priority="39" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",E72)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="40" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",E72)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="containsText" dxfId="6" priority="22" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",E77)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="24" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",E77)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="23" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",E77)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="containsText" dxfId="3" priority="21" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",E82)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="20" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",E82)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="19" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",E82)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G41 G43:G1048576">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Club Target Day">
+      <formula>NOT(ISERROR(SEARCH("Club Target Day",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43:J43">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40:L41 I24:L25 I3:L22 I27:L30 I32:L38">
+    <cfRule type="colorScale" priority="154">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I86:L86">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M43:M1048576 M1:M30 M32:M41">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P58:P1048576 P40:P41 P1:P30 P32:P38 P43:P56">
+    <cfRule type="colorScale" priority="131">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4331,250 +4552,8 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="137">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="containsText" dxfId="46" priority="11" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",D37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="12" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",D37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D55">
-    <cfRule type="containsText" dxfId="44" priority="115" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",D49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="116" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",D49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="114" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",D49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59:D64">
-    <cfRule type="containsText" dxfId="41" priority="91" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",D59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="92" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",D59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="93" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",D59)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66:D71">
-    <cfRule type="containsText" dxfId="38" priority="5" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",D66)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66:D72">
-    <cfRule type="containsText" dxfId="37" priority="4" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",D66)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="3" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",D66)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D74:D77 D79:D86">
-    <cfRule type="containsText" dxfId="35" priority="25" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",D74)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="23" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",D74)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="24" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",D74)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D72:E72">
-    <cfRule type="containsText" dxfId="32" priority="39" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",D72)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8 E18">
-    <cfRule type="containsText" dxfId="31" priority="128" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="127" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="126" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="containsText" dxfId="28" priority="122" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="121" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="120" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="containsText" dxfId="25" priority="113" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="111" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="112" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="containsText" dxfId="22" priority="110" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="109" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="108" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="containsText" dxfId="19" priority="105" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="106" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="107" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E58)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="containsText" dxfId="16" priority="90" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="89" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="88" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E61)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="containsText" dxfId="13" priority="85" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E64)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="86" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E64)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="87" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E64)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="containsText" dxfId="10" priority="40" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E69)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="42" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E69)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="41" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E69)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="containsText" dxfId="7" priority="38" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E72)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="37" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E72)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="containsText" dxfId="5" priority="20" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E77)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="21" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E77)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="22" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E77)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="containsText" dxfId="2" priority="18" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E82)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="19" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E82)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="17" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E82)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43:J43">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41:L42 I24:L25 I3:L22 I27:L30 I32:L39">
-    <cfRule type="colorScale" priority="152">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I86:L86">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M30 M32:M1048576">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P41:P56 P58:P1048576 P1:P30 P32:P39">
-    <cfRule type="colorScale" priority="129">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ARCHERY SHEETS/Archery24.xlsx
+++ b/ARCHERY SHEETS/Archery24.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Desktop\corey-richardson\ARCHERY SHEETS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF9A4C4-BD13-4AF0-91CC-8F568F76D624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B781A2-7AAB-4190-86AD-405180D7003F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{B4E75A46-3142-4F81-B4EF-75C42D0D0353}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Results" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="121">
   <si>
     <t>Swansea SWWU</t>
   </si>
@@ -161,9 +161,6 @@
     <t>signed up for competition</t>
   </si>
   <si>
-    <t>usable for BUCS Outdoors qualification</t>
-  </si>
-  <si>
     <t>YBP</t>
   </si>
   <si>
@@ -393,6 +390,15 @@
   </si>
   <si>
     <t>Beat PB by 4 points, could've easily got even more but a shaky 50m ruined that, 60m went very well</t>
+  </si>
+  <si>
+    <t>Got sight marks for 30 and 40 yards</t>
+  </si>
+  <si>
+    <t>30yds</t>
+  </si>
+  <si>
+    <t>usable for BUCS qualifications</t>
   </si>
 </sst>
 </file>
@@ -631,7 +637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -735,11 +741,44 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -747,22 +786,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -771,23 +795,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -804,14 +816,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0070C0"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -867,13 +879,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -896,6 +901,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -931,48 +943,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1028,6 +998,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -1042,7 +1026,35 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1119,14 +1131,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1183,6 +1195,939 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Handicap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$P$2:$P$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="90"/>
+                <c:pt idx="2">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-35CB-4848-8FA6-D13B826BD85F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="598351327"/>
+        <c:axId val="598351807"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="598351327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="598351807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="598351807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="598351327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>182217</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>356152</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>83654</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15D0496A-6513-F3D4-6886-D1DBAECB443D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1505,9 +2450,9 @@
   <dimension ref="A1:S91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="S32" sqref="S32"/>
+      <selection pane="bottomLeft" activeCell="T40" sqref="T40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,7 +2485,7 @@
         <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
@@ -1548,32 +2493,32 @@
       <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
       <c r="M1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -1601,8 +2546,8 @@
       <c r="N2" s="21"/>
       <c r="O2" s="21"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="3" t="s">
-        <v>60</v>
+      <c r="Q2" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="R2" s="11" t="s">
         <v>31</v>
@@ -1641,7 +2586,7 @@
         <v>32</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -1665,7 +2610,7 @@
         <v>28</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>16</v>
@@ -1683,7 +2628,7 @@
         <v>43</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R4" s="14" t="s">
         <v>37</v>
@@ -1707,7 +2652,7 @@
         <v>24</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>16</v>
@@ -1725,7 +2670,7 @@
         <v>39</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R5" s="15" t="s">
         <v>33</v>
@@ -1758,7 +2703,7 @@
         <v>34</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -1806,7 +2751,7 @@
         <v>35</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -1827,19 +2772,19 @@
         <v>24</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R8" s="18" t="s">
         <v>36</v>
       </c>
       <c r="S8" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -1863,7 +2808,7 @@
         <v>28</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>17</v>
@@ -1884,7 +2829,7 @@
         <v>42</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -1907,8 +2852,8 @@
       <c r="F10" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>71</v>
+      <c r="Q10" s="24" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1929,7 +2874,7 @@
         <v>24</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>28</v>
@@ -1961,7 +2906,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="H12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>28</v>
@@ -2012,7 +2957,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G14" s="27" t="s">
         <v>0</v>
@@ -2054,7 +2999,7 @@
         <v>22</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G15" s="27" t="s">
         <v>1</v>
@@ -2102,7 +3047,7 @@
         <v>28</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>16</v>
@@ -2119,8 +3064,8 @@
       <c r="P16" s="34">
         <v>38</v>
       </c>
-      <c r="Q16" s="44" t="s">
-        <v>74</v>
+      <c r="Q16" s="37" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -2143,7 +3088,7 @@
       <c r="F17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Q17" s="44"/>
+      <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -2159,7 +3104,7 @@
       <c r="D18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q18" s="44"/>
+      <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -2181,7 +3126,7 @@
       <c r="F19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Q19" s="44"/>
+      <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -2191,16 +3136,16 @@
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C20" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="43" t="s">
-        <v>50</v>
+      <c r="C20" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>49</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Q20" s="44"/>
+      <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -2210,10 +3155,10 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="43"/>
-      <c r="G21" s="42" t="s">
-        <v>53</v>
+      <c r="C21" s="37"/>
+      <c r="D21" s="40"/>
+      <c r="G21" s="50" t="s">
+        <v>52</v>
       </c>
       <c r="H21" s="24" t="s">
         <v>4</v>
@@ -2234,33 +3179,33 @@
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
-      <c r="Q21" s="44" t="s">
-        <v>110</v>
+      <c r="Q21" s="37" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="37">
+      <c r="A22" s="48">
         <v>45431</v>
       </c>
-      <c r="B22" s="35" t="str">
+      <c r="B22" s="47" t="str">
         <f>TEXT(A22, "dddd")</f>
         <v>Sunday</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="I22" s="41" t="s">
+      <c r="C22" s="37"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="41" t="s">
+      <c r="J22" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="36"/>
+      <c r="K22" s="39"/>
       <c r="M22" s="5">
         <v>72</v>
       </c>
@@ -2273,20 +3218,20 @@
       <c r="P22" s="3">
         <v>37</v>
       </c>
-      <c r="Q22" s="44"/>
+      <c r="Q22" s="37"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="36"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="39"/>
       <c r="M23" s="5">
         <v>72</v>
       </c>
@@ -2299,22 +3244,22 @@
       <c r="P23" s="3">
         <v>37</v>
       </c>
-      <c r="Q23" s="44"/>
+      <c r="Q23" s="37"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="35"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G24" s="24" t="s">
         <v>3</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I24" s="31" t="s">
         <v>16</v>
@@ -2330,10 +3275,10 @@
       <c r="P24" s="21"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="35">
+      <c r="A25" s="47">
         <v>45433</v>
       </c>
-      <c r="B25" s="35" t="str">
+      <c r="B25" s="47" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
@@ -2350,29 +3295,29 @@
         <v>28</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="47" t="s">
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -2395,10 +3340,10 @@
         <v>28</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>15</v>
@@ -2431,7 +3376,7 @@
         <v>22</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G28" s="27" t="s">
         <v>6</v>
@@ -2461,7 +3406,7 @@
         <v>50</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -2485,20 +3430,20 @@
         <v>28</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="35">
+      <c r="A30" s="47">
         <v>45443</v>
       </c>
-      <c r="B30" s="35" t="str">
+      <c r="B30" s="47" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
@@ -2515,35 +3460,35 @@
         <v>28</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="46"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -2560,10 +3505,10 @@
         <v>24</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>17</v>
@@ -2587,7 +3532,7 @@
         <v>43</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -2611,7 +3556,7 @@
         <v>28</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>16</v>
@@ -2629,7 +3574,7 @@
         <v>41</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -2652,8 +3597,8 @@
       <c r="F34" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="Q34" s="3" t="s">
-        <v>107</v>
+      <c r="Q34" s="24" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -2664,17 +3609,17 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="43" t="s">
+      <c r="D35" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="G35" s="42" t="s">
-        <v>54</v>
+      <c r="G35" s="50" t="s">
+        <v>53</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>16</v>
@@ -2692,7 +3637,7 @@
         <v>37</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -2703,9 +3648,9 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C36" s="44"/>
-      <c r="D36" s="43"/>
-      <c r="G36" s="42"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="40"/>
+      <c r="G36" s="50"/>
       <c r="H36" s="5" t="s">
         <v>7</v>
       </c>
@@ -2731,7 +3676,7 @@
         <v>35</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
@@ -2742,13 +3687,13 @@
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C37" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="D37" s="40"/>
+      <c r="C37" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="44"/>
       <c r="G37" s="25"/>
-      <c r="Q37" s="3" t="s">
-        <v>109</v>
+      <c r="Q37" s="24" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
@@ -2759,11 +3704,11 @@
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
       <c r="G38" s="25"/>
-      <c r="Q38" s="3" t="s">
-        <v>109</v>
+      <c r="Q38" s="24" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
@@ -2774,23 +3719,23 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C39" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="39"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="39"/>
-      <c r="Q39" s="39"/>
+      <c r="C39" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="46"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
@@ -2800,13 +3745,13 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C40" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" s="40"/>
+      <c r="C40" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="44"/>
       <c r="G40" s="25"/>
-      <c r="Q40" s="3" t="s">
-        <v>109</v>
+      <c r="Q40" s="24" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
@@ -2817,46 +3762,51 @@
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
       <c r="G41" s="25"/>
-      <c r="Q41" s="3" t="s">
-        <v>109</v>
+      <c r="Q41" s="24" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="35">
+      <c r="A42" s="54">
         <v>45464</v>
       </c>
-      <c r="B42" s="35" t="str">
+      <c r="B42" s="54" t="str">
         <f>TEXT(A42, "dddd")</f>
         <v>Friday</v>
       </c>
-      <c r="C42" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="50"/>
-      <c r="O42" s="50"/>
-      <c r="P42" s="50"/>
-      <c r="Q42" s="50"/>
+      <c r="C42" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" s="3" t="s">
+      <c r="A43" s="53">
+        <v>45464</v>
+      </c>
+      <c r="B43" s="53" t="str">
+        <f>TEXT(A43, "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="24" t="s">
         <v>24</v>
       </c>
       <c r="E43" s="8" t="s">
@@ -2878,10 +3828,10 @@
         <v>22</v>
       </c>
       <c r="D44" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G44" s="24" t="s">
         <v>55</v>
-      </c>
-      <c r="G44" s="24" t="s">
-        <v>56</v>
       </c>
       <c r="H44" s="31" t="s">
         <v>5</v>
@@ -2894,24 +3844,24 @@
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+      <c r="A45" s="23">
         <v>45466</v>
       </c>
-      <c r="B45" s="2" t="str">
+      <c r="B45" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" s="3" t="s">
+      <c r="C45" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="24" t="s">
         <v>24</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>15</v>
@@ -2946,6 +3896,15 @@
       <c r="F46" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="I46" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
@@ -2967,6 +3926,12 @@
       <c r="F47" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="I47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
@@ -2982,17 +3947,23 @@
       <c r="D48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="H48" s="3" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M48" s="3">
+        <v>90</v>
+      </c>
+      <c r="O48" s="3">
+        <v>900</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
@@ -3015,6 +3986,9 @@
       <c r="F49" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="I49" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -3036,6 +4010,15 @@
       <c r="F50" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="H50" s="3">
+        <v>252</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O50" s="3">
+        <v>324</v>
+      </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
@@ -3052,10 +4035,10 @@
         <v>24</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I51" s="3" t="s">
         <v>15</v>
@@ -3091,10 +4074,10 @@
         <v>28</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>15</v>
@@ -3126,6 +4109,12 @@
       <c r="F53" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="I53" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
@@ -3141,12 +4130,6 @@
       <c r="D54" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M54" s="3">
         <v>72</v>
       </c>
@@ -3172,10 +4155,10 @@
         <v>28</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I55" s="3" t="s">
         <v>15</v>
@@ -3195,18 +4178,18 @@
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C56" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="D56" s="48"/>
+      <c r="C56" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" s="45"/>
       <c r="E56" s="8" t="s">
         <v>27</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Q56" s="3" t="s">
-        <v>108</v>
+      <c r="Q56" s="24" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
@@ -3217,23 +4200,23 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C57" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="39"/>
-      <c r="K57" s="39"/>
-      <c r="L57" s="39"/>
-      <c r="M57" s="39"/>
-      <c r="N57" s="39"/>
-      <c r="O57" s="39"/>
-      <c r="P57" s="39"/>
-      <c r="Q57" s="39"/>
+      <c r="C57" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="46"/>
+      <c r="L57" s="46"/>
+      <c r="M57" s="46"/>
+      <c r="N57" s="46"/>
+      <c r="O57" s="46"/>
+      <c r="P57" s="46"/>
+      <c r="Q57" s="46"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
@@ -3243,12 +4226,12 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C58" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="D58" s="48"/>
-      <c r="Q58" s="3" t="s">
-        <v>108</v>
+      <c r="C58" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" s="45"/>
+      <c r="Q58" s="24" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
@@ -3293,10 +4276,10 @@
         <v>28</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>15</v>
@@ -3323,10 +4306,10 @@
         <v>24</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -3379,29 +4362,29 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C64" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D64" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="G64" s="49" t="s">
+      <c r="C64" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="G64" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="H64" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H64" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="I64" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J64" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>16</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M64" s="3">
         <v>144</v>
@@ -3415,23 +4398,23 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C65" s="44"/>
-      <c r="D65" s="43"/>
-      <c r="G65" s="49"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="40"/>
+      <c r="G65" s="36"/>
       <c r="H65" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I65" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J65" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="K65" s="3" t="s">
         <v>16</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M65" s="3">
         <v>144</v>
@@ -3452,10 +4435,10 @@
         <v>24</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3479,13 +4462,13 @@
         <v>28</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>12</v>
@@ -3530,10 +4513,10 @@
         <v>24</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I69" s="3" t="s">
         <v>15</v>
@@ -3598,17 +4581,17 @@
         <f t="shared" ref="B72:B91" si="2">TEXT(A72, "dddd")</f>
         <v>Saturday</v>
       </c>
-      <c r="C72" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D72" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="G72" s="51" t="s">
+      <c r="C72" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="G72" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="H72" s="33" t="s">
         <v>80</v>
-      </c>
-      <c r="H72" s="33" t="s">
-        <v>81</v>
       </c>
       <c r="I72" s="5" t="s">
         <v>16</v>
@@ -3625,23 +4608,23 @@
         <f t="shared" si="2"/>
         <v>Sunday</v>
       </c>
-      <c r="C73" s="44"/>
-      <c r="D73" s="43"/>
-      <c r="G73" s="51"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="40"/>
+      <c r="G73" s="42"/>
       <c r="H73" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I73" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J73" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="K73" s="3" t="s">
         <v>16</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M73" s="3">
         <v>144</v>
@@ -3662,10 +4645,10 @@
         <v>24</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I74" s="3" t="s">
         <v>15</v>
@@ -3716,7 +4699,7 @@
         <v>28</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>15</v>
@@ -3736,14 +4719,14 @@
       <c r="C77" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D77" s="52" t="s">
+      <c r="D77" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="G77" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="G77" s="49" t="s">
+      <c r="H77" s="24" t="s">
         <v>85</v>
-      </c>
-      <c r="H77" s="24" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -3757,10 +4740,10 @@
       <c r="C78" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="52"/>
-      <c r="G78" s="49"/>
+      <c r="D78" s="35"/>
+      <c r="G78" s="36"/>
       <c r="H78" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -3778,10 +4761,10 @@
         <v>24</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I79" s="3" t="s">
         <v>15</v>
@@ -3847,13 +4830,13 @@
         <v>22</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G82" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="H82" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="I82" s="5" t="s">
         <v>14</v>
@@ -3905,10 +4888,10 @@
         <v>28</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I84" s="3" t="s">
         <v>15</v>
@@ -3956,7 +4939,7 @@
         <v>24</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>8</v>
@@ -3999,26 +4982,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="Q16:Q20"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="Q21:Q23"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="C42:Q42"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="C26:Q26"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:Q57"/>
+  <mergeCells count="38">
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C31:Q31"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="I1:L1"/>
@@ -4035,11 +5002,25 @@
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C31:Q31"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="C42:Q42"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:Q57"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="Q16:Q20"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="Q21:Q23"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="C26:Q26"/>
+    <mergeCell ref="C40:D41"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C20 C24:C25 C27:C35 C43:C55">
     <cfRule type="containsText" dxfId="53" priority="137" operator="containsText" text="Yelverton">
@@ -4118,14 +5099,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -4134,6 +5107,14 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -4226,6 +5207,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -4236,24 +5225,8 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="min"/>
@@ -4262,6 +5235,14 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -4286,11 +5267,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C74:C86">
-    <cfRule type="containsText" dxfId="47" priority="28" operator="containsText" text="University">
+    <cfRule type="containsText" dxfId="47" priority="29" operator="containsText" text="Yelverton">
+      <formula>NOT(ISERROR(SEARCH("Yelverton",C74)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="28" operator="containsText" text="University">
       <formula>NOT(ISERROR(SEARCH("University",C74)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="29" operator="containsText" text="Yelverton">
-      <formula>NOT(ISERROR(SEARCH("Yelverton",C74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75:C86">
@@ -4360,11 +5341,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74:D77 D79:D86">
-    <cfRule type="containsText" dxfId="35" priority="27" operator="containsText" text="Wide">
+    <cfRule type="containsText" dxfId="35" priority="26" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",D74)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="27" operator="containsText" text="Wide">
       <formula>NOT(ISERROR(SEARCH("Wide",D74)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="26" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",D74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72:E72">
@@ -4395,25 +5376,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="containsText" dxfId="26" priority="113" operator="containsText" text="YMCA">
+    <cfRule type="containsText" dxfId="26" priority="115" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",E51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="113" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",E51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="115" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E51)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="24" priority="114" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",E51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="containsText" dxfId="23" priority="111" operator="containsText" text="Lip">
+    <cfRule type="containsText" dxfId="23" priority="112" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",E54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="111" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",E54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="110" operator="containsText" text="YMCA">
+    <cfRule type="containsText" dxfId="21" priority="110" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",E54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="112" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
@@ -4439,22 +5420,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="containsText" dxfId="14" priority="87" operator="containsText" text="YMCA">
+    <cfRule type="containsText" dxfId="14" priority="88" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",E64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="87" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",E64)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="89" operator="containsText" text="Wide">
+    <cfRule type="containsText" dxfId="12" priority="89" operator="containsText" text="Wide">
       <formula>NOT(ISERROR(SEARCH("Wide",E64)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="88" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="containsText" dxfId="11" priority="42" operator="containsText" text="YMCA">
+    <cfRule type="containsText" dxfId="11" priority="43" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",E69)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="42" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",E69)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="43" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E69)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="9" priority="44" operator="containsText" text="Wide">
       <formula>NOT(ISERROR(SEARCH("Wide",E69)))</formula>
@@ -4483,11 +5464,11 @@
     <cfRule type="containsText" dxfId="3" priority="21" operator="containsText" text="Wide">
       <formula>NOT(ISERROR(SEARCH("Wide",E82)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="20" operator="containsText" text="Lip">
+    <cfRule type="containsText" dxfId="2" priority="19" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",E82)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="20" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",E82)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="19" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G41 G43:G1048576">
@@ -4555,5 +5536,6 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ARCHERY SHEETS/Archery24.xlsx
+++ b/ARCHERY SHEETS/Archery24.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Desktop\corey-richardson\ARCHERY SHEETS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B781A2-7AAB-4190-86AD-405180D7003F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD85EF6-E8E4-4321-9565-BE71CDBD3E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{B4E75A46-3142-4F81-B4EF-75C42D0D0353}"/>
   </bookViews>
   <sheets>
-    <sheet name="Results" sheetId="1" r:id="rId1"/>
+    <sheet name="2024-Outdoors" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="138">
   <si>
     <t>Swansea SWWU</t>
   </si>
@@ -269,9 +269,6 @@
     <t>AWAY</t>
   </si>
   <si>
-    <t>Redruth Double WA 1440</t>
-  </si>
-  <si>
     <t>WA 1440</t>
   </si>
   <si>
@@ -299,12 +296,6 @@
     <t>Autumn Gold</t>
   </si>
   <si>
-    <t>St George</t>
-  </si>
-  <si>
-    <t>90m</t>
-  </si>
-  <si>
     <t>70m</t>
   </si>
   <si>
@@ -326,12 +317,6 @@
     <t>Albion</t>
   </si>
   <si>
-    <t>Bristol I</t>
-  </si>
-  <si>
-    <t>80ds</t>
-  </si>
-  <si>
     <t>Olympic Target Day</t>
   </si>
   <si>
@@ -392,20 +377,86 @@
     <t>Beat PB by 4 points, could've easily got even more but a shaky 50m ruined that, 60m went very well</t>
   </si>
   <si>
-    <t>Got sight marks for 30 and 40 yards</t>
-  </si>
-  <si>
     <t>30yds</t>
   </si>
   <si>
     <t>usable for BUCS qualifications</t>
+  </si>
+  <si>
+    <t>Got updated sight marks for 30 and 40 yards</t>
+  </si>
+  <si>
+    <t>Got updated sight marks for 50 and 60 yards</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Arrows don't reach 80yds, had to break-off and reglue each point; TWO POINTS FELL OUT!</t>
+  </si>
+  <si>
+    <t>Bareshaft tuning; rest moved A LOT, still need to sort horizontal</t>
+  </si>
+  <si>
+    <t>Finish bareshaft tuning; MORE sightmarks</t>
+  </si>
+  <si>
+    <t>Redid D-Loop</t>
+  </si>
+  <si>
+    <t>End of AimForParis Virtual Competition</t>
+  </si>
+  <si>
+    <t>Start of AimForParis Virtual Competition</t>
+  </si>
+  <si>
+    <t>PLUM 60</t>
+  </si>
+  <si>
+    <t>WA 720</t>
+  </si>
+  <si>
+    <t>Warwick 50</t>
+  </si>
+  <si>
+    <t>Western 40</t>
+  </si>
+  <si>
+    <t>Warwick</t>
+  </si>
+  <si>
+    <t>Orignal plan to do Western 30, perfect score at 30, shredded foam target, moved up to 40yds instead</t>
+  </si>
+  <si>
+    <t>key dates</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Think I can pick up at least 4 points on this with a good day.</t>
+  </si>
+  <si>
+    <t>Double WA 720</t>
+  </si>
+  <si>
+    <t>Metric 80-30</t>
+  </si>
+  <si>
+    <t>Long Metric I</t>
+  </si>
+  <si>
+    <t>Long Windsor</t>
+  </si>
+  <si>
+    <t>Exhausted after like 12 arrows? Used the session more as a social.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,8 +563,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8" tint="0.59999389629810485"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -559,6 +618,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,7 +702,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -741,35 +806,53 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -777,7 +860,10 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -786,47 +872,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="44">
     <dxf>
       <fill>
         <patternFill>
@@ -858,6 +911,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
@@ -866,13 +940,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -894,20 +961,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -977,7 +1030,21 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -998,7 +1065,35 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1033,62 +1128,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
@@ -1104,41 +1143,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1252,7 +1256,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Results!$P$1</c:f>
+              <c:f>'2024-Outdoors'!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1285,10 +1289,10 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$P$2:$P$91</c:f>
+              <c:f>'2024-Outdoors'!$P$2:$P$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="2">
                   <c:v>43</c:v>
                 </c:pt>
@@ -1336,6 +1340,12 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2094,14 +2104,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>182217</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:colOff>8282</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>7454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>356152</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:colOff>182217</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>83654</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2447,12 +2457,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF9BC55-E030-4D83-A3CE-E85DC3922C40}">
-  <dimension ref="A1:S91"/>
+  <dimension ref="A1:S92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="T40" sqref="T40"/>
+      <selection pane="bottomLeft" activeCell="Q60" sqref="Q60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2471,7 +2481,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
@@ -2493,12 +2505,12 @@
       <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
       <c r="M1" s="1" t="s">
         <v>56</v>
       </c>
@@ -2703,7 +2715,7 @@
         <v>34</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -2747,11 +2759,11 @@
       <c r="P7" s="3">
         <v>42</v>
       </c>
-      <c r="R7" s="17" t="s">
-        <v>35</v>
+      <c r="R7" s="37" t="s">
+        <v>124</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>41</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -2780,11 +2792,11 @@
       <c r="Q8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="R8" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="S8" s="19" t="s">
-        <v>42</v>
+      <c r="R8" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -2830,6 +2842,12 @@
       </c>
       <c r="Q9" s="3" t="s">
         <v>68</v>
+      </c>
+      <c r="R9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="S9" s="19" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -3064,7 +3082,7 @@
       <c r="P16" s="34">
         <v>38</v>
       </c>
-      <c r="Q16" s="37" t="s">
+      <c r="Q16" s="39" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3088,7 +3106,7 @@
       <c r="F17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Q17" s="37"/>
+      <c r="Q17" s="39"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -3104,7 +3122,7 @@
       <c r="D18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q18" s="37"/>
+      <c r="Q18" s="39"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -3126,7 +3144,7 @@
       <c r="F19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Q19" s="37"/>
+      <c r="Q19" s="39"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -3136,16 +3154,16 @@
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C20" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="40" t="s">
+      <c r="C20" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="49" t="s">
         <v>49</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Q20" s="37"/>
+      <c r="Q20" s="39"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -3155,9 +3173,9 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="40"/>
-      <c r="G21" s="50" t="s">
+      <c r="C21" s="39"/>
+      <c r="D21" s="49"/>
+      <c r="G21" s="54" t="s">
         <v>52</v>
       </c>
       <c r="H21" s="24" t="s">
@@ -3179,33 +3197,33 @@
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
-      <c r="Q21" s="37" t="s">
-        <v>109</v>
+      <c r="Q21" s="39" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="48">
+      <c r="A22" s="55">
         <v>45431</v>
       </c>
-      <c r="B22" s="47" t="str">
+      <c r="B22" s="40" t="str">
         <f>TEXT(A22, "dddd")</f>
         <v>Sunday</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="I22" s="38" t="s">
+      <c r="C22" s="39"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="38" t="s">
+      <c r="J22" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="39"/>
+      <c r="K22" s="38"/>
       <c r="M22" s="5">
         <v>72</v>
       </c>
@@ -3218,20 +3236,20 @@
       <c r="P22" s="3">
         <v>37</v>
       </c>
-      <c r="Q22" s="37"/>
+      <c r="Q22" s="39"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="39"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="38"/>
       <c r="M23" s="5">
         <v>72</v>
       </c>
@@ -3244,11 +3262,11 @@
       <c r="P23" s="3">
         <v>37</v>
       </c>
-      <c r="Q23" s="37"/>
+      <c r="Q23" s="39"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
-      <c r="B24" s="47"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="3" t="s">
         <v>20</v>
       </c>
@@ -3259,7 +3277,7 @@
         <v>3</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I24" s="31" t="s">
         <v>16</v>
@@ -3275,10 +3293,10 @@
       <c r="P24" s="21"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="47">
+      <c r="A25" s="40">
         <v>45433</v>
       </c>
-      <c r="B25" s="47" t="str">
+      <c r="B25" s="40" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
@@ -3299,25 +3317,25 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="43" t="s">
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -3340,7 +3358,7 @@
         <v>28</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>75</v>
@@ -3406,7 +3424,7 @@
         <v>50</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -3430,20 +3448,20 @@
         <v>28</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="47">
+      <c r="A30" s="40">
         <v>45443</v>
       </c>
-      <c r="B30" s="47" t="str">
+      <c r="B30" s="40" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
@@ -3460,35 +3478,35 @@
         <v>28</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I30" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q30" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="Q30" s="3" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -3505,10 +3523,10 @@
         <v>24</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>17</v>
@@ -3532,7 +3550,7 @@
         <v>43</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -3556,7 +3574,7 @@
         <v>28</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>16</v>
@@ -3574,7 +3592,7 @@
         <v>41</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -3598,7 +3616,7 @@
         <v>28</v>
       </c>
       <c r="Q34" s="24" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -3609,17 +3627,17 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C35" s="37" t="s">
+      <c r="C35" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="40" t="s">
+      <c r="D35" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="G35" s="50" t="s">
+      <c r="G35" s="54" t="s">
         <v>53</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>16</v>
@@ -3637,7 +3655,7 @@
         <v>37</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -3648,9 +3666,9 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="40"/>
-      <c r="G36" s="50"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="49"/>
+      <c r="G36" s="54"/>
       <c r="H36" s="5" t="s">
         <v>7</v>
       </c>
@@ -3661,7 +3679,7 @@
         <v>16</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="M36" s="5">
         <v>90</v>
@@ -3676,7 +3694,7 @@
         <v>35</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
@@ -3687,13 +3705,13 @@
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="44"/>
+      <c r="D37" s="47"/>
       <c r="G37" s="25"/>
       <c r="Q37" s="24" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
@@ -3704,11 +3722,11 @@
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
       <c r="G38" s="25"/>
       <c r="Q38" s="24" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
@@ -3719,23 +3737,23 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C39" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="46"/>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="46"/>
+      <c r="C39" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="52"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
@@ -3745,13 +3763,13 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C40" s="44" t="s">
+      <c r="C40" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="D40" s="44"/>
+      <c r="D40" s="47"/>
       <c r="G40" s="25"/>
       <c r="Q40" s="24" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
@@ -3762,44 +3780,44 @@
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
       <c r="G41" s="25"/>
       <c r="Q41" s="24" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="54">
+      <c r="A42" s="36">
         <v>45464</v>
       </c>
-      <c r="B42" s="54" t="str">
+      <c r="B42" s="36" t="str">
         <f>TEXT(A42, "dddd")</f>
         <v>Friday</v>
       </c>
-      <c r="C42" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="41"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
+      <c r="C42" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="48"/>
+      <c r="P42" s="48"/>
+      <c r="Q42" s="48"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="53">
+      <c r="A43" s="35">
         <v>45464</v>
       </c>
-      <c r="B43" s="53" t="str">
+      <c r="B43" s="35" t="str">
         <f>TEXT(A43, "dddd")</f>
         <v>Friday</v>
       </c>
@@ -3858,10 +3876,10 @@
         <v>24</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>15</v>
@@ -3897,13 +3915,13 @@
         <v>28</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
@@ -3932,6 +3950,9 @@
       <c r="J47" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="Q47" s="3" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
@@ -3947,23 +3968,29 @@
       <c r="D48" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="G48" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="H48" s="3" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M48" s="3">
-        <v>90</v>
+        <v>48</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="O48" s="3">
-        <v>900</v>
+        <v>432</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
@@ -3987,7 +4014,13 @@
         <v>28</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>15</v>
+        <v>113</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
@@ -4001,23 +4034,14 @@
       <c r="C50" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E50" s="8" t="s">
+      <c r="D50" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="I50" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H50" s="3">
-        <v>252</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O50" s="3">
-        <v>324</v>
+      <c r="Q50" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
@@ -4035,22 +4059,19 @@
         <v>24</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M51" s="3">
-        <v>144</v>
+        <v>100</v>
+      </c>
+      <c r="Q51" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -4074,19 +4095,7 @@
         <v>28</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M52" s="3">
-        <v>48</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
@@ -4100,20 +4109,14 @@
       <c r="C53" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E53" s="8" t="s">
+      <c r="D53" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="I53" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I53" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>88</v>
+      <c r="Q53" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
@@ -4130,8 +4133,32 @@
       <c r="D54" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="G54" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="M54" s="3">
-        <v>72</v>
+        <v>96</v>
+      </c>
+      <c r="N54" s="3">
+        <v>828</v>
+      </c>
+      <c r="O54" s="3">
+        <v>864</v>
+      </c>
+      <c r="P54" s="3">
+        <v>43</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
@@ -4155,19 +4182,31 @@
         <v>28</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="M55" s="3">
         <v>48</v>
+      </c>
+      <c r="N55" s="3">
+        <v>420</v>
+      </c>
+      <c r="O55" s="3">
+        <v>432</v>
+      </c>
+      <c r="P55" s="3">
+        <v>31</v>
+      </c>
+      <c r="Q55" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -4178,10 +4217,10 @@
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C56" s="45" t="s">
+      <c r="C56" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="D56" s="45"/>
+      <c r="D56" s="51"/>
       <c r="E56" s="8" t="s">
         <v>27</v>
       </c>
@@ -4189,7 +4228,7 @@
         <v>28</v>
       </c>
       <c r="Q56" s="24" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
@@ -4200,23 +4239,23 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C57" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="D57" s="46"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="46"/>
-      <c r="J57" s="46"/>
-      <c r="K57" s="46"/>
-      <c r="L57" s="46"/>
-      <c r="M57" s="46"/>
-      <c r="N57" s="46"/>
-      <c r="O57" s="46"/>
-      <c r="P57" s="46"/>
-      <c r="Q57" s="46"/>
+      <c r="C57" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" s="52"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="52"/>
+      <c r="K57" s="52"/>
+      <c r="L57" s="52"/>
+      <c r="M57" s="52"/>
+      <c r="N57" s="52"/>
+      <c r="O57" s="52"/>
+      <c r="P57" s="52"/>
+      <c r="Q57" s="52"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
@@ -4226,12 +4265,12 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C58" s="45" t="s">
+      <c r="C58" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="D58" s="45"/>
+      <c r="D58" s="51"/>
       <c r="Q58" s="24" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
@@ -4242,26 +4281,31 @@
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="C59" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="42"/>
+      <c r="O59" s="42"/>
+      <c r="P59" s="42"/>
+      <c r="Q59" s="42"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>45499</v>
-      </c>
-      <c r="B60" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Friday</v>
+        <v>45496</v>
+      </c>
+      <c r="B60" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>22</v>
@@ -4275,29 +4319,23 @@
       <c r="F60" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="H60" s="3" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M60" s="3">
-        <v>48</v>
+        <v>87</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>45501</v>
+        <v>45499</v>
       </c>
       <c r="B61" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Sunday</v>
+        <v>Friday</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>22</v>
@@ -4305,20 +4343,35 @@
       <c r="D61" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="E61" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="G61" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>98</v>
+        <v>125</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M61" s="3">
+        <v>72</v>
+      </c>
+      <c r="O61" s="3">
+        <v>720</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>45503</v>
+        <v>45501</v>
       </c>
       <c r="B62" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Tuesday</v>
+        <v>Sunday</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>22</v>
@@ -4326,20 +4379,29 @@
       <c r="D62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E62" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>28</v>
+      <c r="G62" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M62" s="3">
+        <v>72</v>
+      </c>
+      <c r="O62" s="3">
+        <v>720</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>45506</v>
+        <v>45503</v>
       </c>
       <c r="B63" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Friday</v>
+        <v>Tuesday</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>22</v>
@@ -4353,80 +4415,92 @@
       <c r="F63" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="H63" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M63" s="3">
+        <v>72</v>
+      </c>
+      <c r="O63" s="3">
+        <v>720</v>
+      </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
-        <v>45507</v>
+      <c r="A64" s="2">
+        <v>45506</v>
       </c>
       <c r="B64" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Saturday</v>
-      </c>
-      <c r="C64" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D64" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="G64" s="36" t="s">
-        <v>77</v>
+        <v>Friday</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="K64" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L64" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="M64" s="3">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
+        <v>72</v>
+      </c>
+      <c r="O64" s="3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
         <v>45508</v>
       </c>
       <c r="B65" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C65" s="37"/>
-      <c r="D65" s="40"/>
-      <c r="G65" s="36"/>
+      <c r="C65" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" s="25" t="s">
+        <v>98</v>
+      </c>
       <c r="H65" s="3" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="K65" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L65" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="M65" s="3">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="O65" s="3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>45508</v>
+        <v>45510</v>
       </c>
       <c r="B66" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Sunday</v>
+        <v>Tuesday</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>22</v>
@@ -4434,20 +4508,32 @@
       <c r="D66" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G66" s="25" t="s">
-        <v>103</v>
+      <c r="E66" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M66" s="3">
+        <v>72</v>
+      </c>
+      <c r="O66" s="3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>45510</v>
+        <v>45513</v>
       </c>
       <c r="B67" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Tuesday</v>
+        <v>Friday</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>22</v>
@@ -4461,77 +4547,77 @@
       <c r="F67" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G67" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="H67" s="3" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M67" s="3">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>45513</v>
-      </c>
-      <c r="B68" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Friday</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D68" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O67" s="3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="40">
+        <v>45515</v>
+      </c>
+      <c r="B68" s="41" t="str">
+        <f>TEXT(A68, "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="C68" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E68" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>45515</v>
-      </c>
-      <c r="B69" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Sunday</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="H68" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="I68" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="J68" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="K68" s="38"/>
+      <c r="L68" s="38"/>
+      <c r="M68" s="3">
+        <v>72</v>
+      </c>
+      <c r="O68" s="3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="40"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="38"/>
+      <c r="L69" s="38"/>
       <c r="M69" s="3">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="O69" s="3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>45517</v>
       </c>
@@ -4551,8 +4637,20 @@
       <c r="F70" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H70" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M70" s="3">
+        <v>72</v>
+      </c>
+      <c r="O70" s="3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>45520</v>
       </c>
@@ -4572,26 +4670,38 @@
       <c r="F71" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H71" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M71" s="3">
+        <v>72</v>
+      </c>
+      <c r="O71" s="3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>45521</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f t="shared" ref="B72:B91" si="2">TEXT(A72, "dddd")</f>
+        <f t="shared" ref="B72:B92" si="2">TEXT(A72, "dddd")</f>
         <v>Saturday</v>
       </c>
-      <c r="C72" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D72" s="40" t="s">
+      <c r="C72" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="G72" s="42" t="s">
+      <c r="G72" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="H72" s="33" t="s">
         <v>79</v>
-      </c>
-      <c r="H72" s="33" t="s">
-        <v>80</v>
       </c>
       <c r="I72" s="5" t="s">
         <v>16</v>
@@ -4599,8 +4709,11 @@
       <c r="M72" s="3">
         <v>72</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O72" s="3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>45522</v>
       </c>
@@ -4608,29 +4721,32 @@
         <f t="shared" si="2"/>
         <v>Sunday</v>
       </c>
-      <c r="C73" s="37"/>
-      <c r="D73" s="40"/>
-      <c r="G73" s="42"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="49"/>
+      <c r="G73" s="50"/>
       <c r="H73" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="K73" s="3" t="s">
         <v>16</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M73" s="3">
         <v>144</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O73" s="3">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>45522</v>
       </c>
@@ -4644,20 +4760,26 @@
       <c r="D74" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G74" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J74" s="3" t="s">
+      <c r="G74" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="H74" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="I74" s="24" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J74" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="M74" s="3">
+        <v>48</v>
+      </c>
+      <c r="O74" s="3">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>45524</v>
       </c>
@@ -4677,8 +4799,23 @@
       <c r="F75" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H75" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M75" s="3">
+        <v>48</v>
+      </c>
+      <c r="O75" s="3">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>45527</v>
       </c>
@@ -4707,8 +4844,14 @@
       <c r="J76" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M76" s="3">
+        <v>48</v>
+      </c>
+      <c r="O76" s="3">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>45528</v>
       </c>
@@ -4719,17 +4862,17 @@
       <c r="C77" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D77" s="35" t="s">
+      <c r="D77" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="G77" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="G77" s="36" t="s">
+      <c r="H77" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="H77" s="24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>45529</v>
       </c>
@@ -4740,13 +4883,11 @@
       <c r="C78" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="35"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D78" s="45"/>
+      <c r="G78" s="46"/>
+      <c r="H78" s="53"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>45529</v>
       </c>
@@ -4761,10 +4902,10 @@
         <v>24</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I79" s="3" t="s">
         <v>15</v>
@@ -4775,8 +4916,11 @@
       <c r="M79" s="3">
         <v>96</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O79" s="3">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>45531</v>
       </c>
@@ -4797,7 +4941,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>45534</v>
       </c>
@@ -4818,7 +4962,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>45536</v>
       </c>
@@ -4833,26 +4977,28 @@
         <v>49</v>
       </c>
       <c r="G82" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="I82" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J82" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I82" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K82" s="5" t="s">
+      <c r="J82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L82" s="5"/>
+      <c r="K82" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="M82" s="5">
         <v>108</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O82" s="3">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>45536</v>
       </c>
@@ -4867,7 +5013,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>45538</v>
       </c>
@@ -4888,7 +5034,7 @@
         <v>28</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>75</v>
@@ -4902,8 +5048,11 @@
       <c r="M84" s="3">
         <v>48</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O84" s="3">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>45541</v>
       </c>
@@ -4924,7 +5073,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>45543</v>
       </c>
@@ -4932,78 +5081,124 @@
         <f t="shared" si="2"/>
         <v>Sunday</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M86" s="3">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
+      <c r="C86" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="D86" s="43"/>
+      <c r="E86" s="43"/>
+      <c r="F86" s="43"/>
+      <c r="G86" s="43"/>
+      <c r="H86" s="43"/>
+      <c r="I86" s="43"/>
+      <c r="J86" s="43"/>
+      <c r="K86" s="43"/>
+      <c r="L86" s="43"/>
+      <c r="M86" s="43"/>
+      <c r="N86" s="43"/>
+      <c r="O86" s="43"/>
+      <c r="P86" s="43"/>
+      <c r="Q86" s="43"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>45543</v>
+      </c>
       <c r="B87" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Saturday</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+        <v>Sunday</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M87" s="3">
+        <v>72</v>
+      </c>
+      <c r="O87" s="3">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Saturday</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Saturday</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
       <c r="B90" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Saturday</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Saturday</v>
       </c>
     </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Saturday</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="50">
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="C39:Q39"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="Q16:Q20"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="Q21:Q23"/>
+    <mergeCell ref="C26:Q26"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="C59:Q59"/>
+    <mergeCell ref="C86:Q86"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="C31:Q31"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="C39:Q39"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="C40:D41"/>
     <mergeCell ref="C42:Q42"/>
     <mergeCell ref="C72:C73"/>
     <mergeCell ref="D72:D73"/>
@@ -5011,23 +5206,21 @@
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="C57:Q57"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="Q16:Q20"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="Q21:Q23"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="C26:Q26"/>
-    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="J68:J69"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:C20 C24:C25 C27:C35 C43:C55">
-    <cfRule type="containsText" dxfId="53" priority="137" operator="containsText" text="Yelverton">
+  <conditionalFormatting sqref="C2:C20 C24:C25 C27:C35 C43:C55 C68 C70:C72">
+    <cfRule type="containsText" dxfId="43" priority="137" operator="containsText" text="Yelverton">
       <formula>NOT(ISERROR(SEARCH("Yelverton",C2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="136" operator="containsText" text="University">
-      <formula>NOT(ISERROR(SEARCH("University",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C55 D35 D15 D28 C27:C35 C24:C25 C2:C20">
@@ -5050,7 +5243,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C59:C63">
+  <conditionalFormatting sqref="C60:C64">
     <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="min"/>
@@ -5070,35 +5263,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C59:C64">
-    <cfRule type="containsText" dxfId="51" priority="97" operator="containsText" text="Yelverton">
-      <formula>NOT(ISERROR(SEARCH("Yelverton",C59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="96" operator="containsText" text="University">
-      <formula>NOT(ISERROR(SEARCH("University",C59)))</formula>
+  <conditionalFormatting sqref="C60:C67">
+    <cfRule type="containsText" dxfId="42" priority="8" operator="containsText" text="University">
+      <formula>NOT(ISERROR(SEARCH("University",C60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="9" operator="containsText" text="Yelverton">
+      <formula>NOT(ISERROR(SEARCH("Yelverton",C60)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="colorScale" priority="106">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="105">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
+  <conditionalFormatting sqref="C65">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -5118,15 +5291,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C66:C72">
-    <cfRule type="containsText" dxfId="49" priority="8" operator="containsText" text="University">
-      <formula>NOT(ISERROR(SEARCH("University",C66)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="9" operator="containsText" text="Yelverton">
-      <formula>NOT(ISERROR(SEARCH("Yelverton",C66)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
+  <conditionalFormatting sqref="C66">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
@@ -5137,7 +5310,9 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="79">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5145,8 +5320,6 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
     <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
@@ -5157,16 +5330,8 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C69">
+  <conditionalFormatting sqref="C68">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -5206,15 +5371,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C70:C72 C68 C2:C20 C24:C25 C27:C35 C43:C55">
+    <cfRule type="containsText" dxfId="40" priority="136" operator="containsText" text="University">
+      <formula>NOT(ISERROR(SEARCH("University",C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -5225,8 +5387,24 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="min"/>
@@ -5235,14 +5413,6 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -5266,15 +5436,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C74:C86">
-    <cfRule type="containsText" dxfId="47" priority="29" operator="containsText" text="Yelverton">
+  <conditionalFormatting sqref="C74:C87">
+    <cfRule type="containsText" dxfId="39" priority="28" operator="containsText" text="University">
+      <formula>NOT(ISERROR(SEARCH("University",C74)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="29" operator="containsText" text="Yelverton">
       <formula>NOT(ISERROR(SEARCH("Yelverton",C74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="28" operator="containsText" text="University">
-      <formula>NOT(ISERROR(SEARCH("University",C74)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C75:C86">
+  <conditionalFormatting sqref="C75:C87">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -5294,151 +5464,119 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D11 D43:D1048576">
-    <cfRule type="containsText" dxfId="45" priority="1" operator="containsText" text="YMCA">
+  <conditionalFormatting sqref="D1:D11 D43:D49 D51:D52 D54:D58 D60:D68 D70:D85 D87:D1048576">
+    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D11 D13:D20 D24:D25 D27:D35 D43:D47 D48:F48">
-    <cfRule type="containsText" dxfId="44" priority="135" operator="containsText" text="Wide">
+  <conditionalFormatting sqref="D2:D11 D13:D20 D24:D25 D27:D35 D43:D47 D48:F48 D70:D71">
+    <cfRule type="containsText" dxfId="36" priority="135" operator="containsText" text="Wide">
       <formula>NOT(ISERROR(SEARCH("Wide",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13:D20 D24:D25 D27:D35 D48:F48 D2:D11 D43:D47">
-    <cfRule type="containsText" dxfId="43" priority="134" operator="containsText" text="Lip">
+  <conditionalFormatting sqref="D13:D20 D24:D25 D27:D35 D48:F48 D70:D72 D2:D11 D43:D47">
+    <cfRule type="containsText" dxfId="35" priority="134" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D41 D48:F48">
-    <cfRule type="containsText" dxfId="42" priority="132" operator="containsText" text="YMCA">
+    <cfRule type="containsText" dxfId="34" priority="132" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",D13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D55">
-    <cfRule type="containsText" dxfId="41" priority="118" operator="containsText" text="Wide">
+  <conditionalFormatting sqref="D49 D51:D52 D54:D55">
+    <cfRule type="containsText" dxfId="33" priority="117" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",D49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="118" operator="containsText" text="Wide">
       <formula>NOT(ISERROR(SEARCH("Wide",D49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="117" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",D49)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59:D64">
-    <cfRule type="containsText" dxfId="39" priority="94" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",D59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="95" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",D59)))</formula>
+  <conditionalFormatting sqref="D60:D68">
+    <cfRule type="containsText" dxfId="31" priority="6" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",D60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="7" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",D60)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D66:D71">
-    <cfRule type="containsText" dxfId="37" priority="7" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",D66)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66:D72">
-    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",D66)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D74:D77 D79:D86">
-    <cfRule type="containsText" dxfId="35" priority="26" operator="containsText" text="Lip">
+  <conditionalFormatting sqref="D74:D77 D79:D85 D87">
+    <cfRule type="containsText" dxfId="29" priority="26" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",D74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="27" operator="containsText" text="Wide">
+    <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="Wide">
       <formula>NOT(ISERROR(SEARCH("Wide",D74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72:E72">
-    <cfRule type="containsText" dxfId="33" priority="41" operator="containsText" text="Wide">
+    <cfRule type="containsText" dxfId="27" priority="41" operator="containsText" text="Wide">
       <formula>NOT(ISERROR(SEARCH("Wide",D72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8 E18">
-    <cfRule type="containsText" dxfId="32" priority="130" operator="containsText" text="Wide">
+    <cfRule type="containsText" dxfId="26" priority="129" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",E8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="130" operator="containsText" text="Wide">
       <formula>NOT(ISERROR(SEARCH("Wide",E8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="128" operator="containsText" text="YMCA">
+    <cfRule type="containsText" dxfId="24" priority="128" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",E8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="129" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsText" dxfId="29" priority="124" operator="containsText" text="Wide">
+    <cfRule type="containsText" dxfId="23" priority="124" operator="containsText" text="Wide">
       <formula>NOT(ISERROR(SEARCH("Wide",E11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="123" operator="containsText" text="Lip">
+    <cfRule type="containsText" dxfId="22" priority="123" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",E11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="122" operator="containsText" text="YMCA">
+    <cfRule type="containsText" dxfId="21" priority="122" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",E11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="containsText" dxfId="26" priority="115" operator="containsText" text="Wide">
+    <cfRule type="containsText" dxfId="20" priority="115" operator="containsText" text="Wide">
       <formula>NOT(ISERROR(SEARCH("Wide",E51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="113" operator="containsText" text="YMCA">
+    <cfRule type="containsText" dxfId="19" priority="114" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",E51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="113" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",E51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="114" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="containsText" dxfId="23" priority="112" operator="containsText" text="Wide">
+    <cfRule type="containsText" dxfId="17" priority="110" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",E54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="111" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",E54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="112" operator="containsText" text="Wide">
       <formula>NOT(ISERROR(SEARCH("Wide",E54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="111" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="110" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="containsText" dxfId="20" priority="107" operator="containsText" text="YMCA">
+    <cfRule type="containsText" dxfId="14" priority="109" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",E58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="108" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",E58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="107" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",E58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="108" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="109" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E58)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="containsText" dxfId="17" priority="92" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="91" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="90" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E61)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="containsText" dxfId="14" priority="88" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E64)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="87" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E64)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="89" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E64)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="containsText" dxfId="11" priority="43" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E69)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="42" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E69)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="44" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E69)))</formula>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="containsText" dxfId="11" priority="92" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",E62)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="91" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",E62)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="90" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",E62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
@@ -5450,28 +5588,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="containsText" dxfId="6" priority="22" operator="containsText" text="YMCA">
+    <cfRule type="containsText" dxfId="6" priority="24" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",E77)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="23" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",E77)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="22" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",E77)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="24" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E77)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="23" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="containsText" dxfId="3" priority="21" operator="containsText" text="Wide">
+    <cfRule type="containsText" dxfId="3" priority="19" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",E82)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="21" operator="containsText" text="Wide">
       <formula>NOT(ISERROR(SEARCH("Wide",E82)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="19" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E82)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="20" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",E82)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G41 G43:G1048576">
+  <conditionalFormatting sqref="G1:G41 G43:G58 G60:G68 G70:G85 G87:G1048576">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Club Target Day">
       <formula>NOT(ISERROR(SEARCH("Club Target Day",G1)))</formula>
     </cfRule>
@@ -5500,7 +5638,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I86:L86">
+  <conditionalFormatting sqref="I87:L87">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -5512,7 +5650,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M43:M1048576 M1:M30 M32:M41">
+  <conditionalFormatting sqref="M87:M1048576 M1:M30 M32:M41 M43:M58 M60:M85">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -5522,7 +5660,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P58:P1048576 P40:P41 P1:P30 P32:P38 P43:P56">
+  <conditionalFormatting sqref="P87:P1048576 P40:P41 P58 P1:P30 P32:P38 P43:P56 P60:P85">
     <cfRule type="colorScale" priority="131">
       <colorScale>
         <cfvo type="min"/>
